--- a/results/general_stats.xlsx
+++ b/results/general_stats.xlsx
@@ -1,44 +1,437 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView windowHeight="18240"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="by_lambda" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="single_values" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="by_lambda" sheetId="1" r:id="rId1"/>
+    <sheet name="single_values" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>uni_better_bi</t>
+  </si>
+  <si>
+    <t>bi_better_uni</t>
+  </si>
+  <si>
+    <t>0,20</t>
+  </si>
+  <si>
+    <t>0,33</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>0,66</t>
+  </si>
+  <si>
+    <t>0,75</t>
+  </si>
+  <si>
+    <t>0,90</t>
+  </si>
+  <si>
+    <t>0,95</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>pct_nones</t>
+  </si>
+  <si>
+    <t>unigram_acc</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -47,26 +440,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -349,252 +1045,219 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>lambda</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>uni_better_bi</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>bi_better_uni</t>
-        </is>
+    <row r="1" spans="2:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0,20</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8837489046443081</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0.883748904644308</v>
+      </c>
+      <c r="D2">
         <v>1727</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>3714</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8855572373137895</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0.88555723731379</v>
+      </c>
+      <c r="D3">
         <v>1763</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>3977</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8870309886083008</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0.887030988608301</v>
+      </c>
+      <c r="D4">
         <v>1794</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>4193</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8886959292599379</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0.888695929259938</v>
+      </c>
+      <c r="D5">
         <v>1819</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>4427</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8898510316259062</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0.889851031625906</v>
+      </c>
+      <c r="D6">
         <v>1825</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>4578</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0,90</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8923683581613957</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0.892368358161396</v>
+      </c>
+      <c r="D7">
         <v>1837</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>4906</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8938899067951884</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0.893889906795188</v>
+      </c>
+      <c r="D8">
         <v>1848</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>5108</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7437265992193102</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>0.74372659921931</v>
+      </c>
+      <c r="D9">
         <v>21267</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>5677</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>pct_nones</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>unigram_acc</t>
-        </is>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.06799417913993823</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8679200191189357</v>
+      <c r="B2">
+        <v>0.0679941791399382</v>
+      </c>
+      <c r="C2">
+        <v>0.867920019118936</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.06799417913993823</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8679200191189357</v>
+      <c r="B3">
+        <v>0.0679941791399382</v>
+      </c>
+      <c r="C3">
+        <v>0.867920019118936</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/results/general_stats.xlsx
+++ b/results/general_stats.xlsx
@@ -21,13 +21,13 @@
     <t>lambda</t>
   </si>
   <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>uni_better_bi</t>
-  </si>
-  <si>
-    <t>bi_better_uni</t>
+    <t>skuteczność</t>
+  </si>
+  <si>
+    <t>1-gram lepszy</t>
+  </si>
+  <si>
+    <t>2-gram lepszy</t>
   </si>
   <si>
     <t>0,20</t>
@@ -65,12 +65,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +86,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -95,15 +194,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,21 +210,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,97 +224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,19 +245,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,151 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,17 +463,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,11 +487,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,185 +539,166 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="47" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1054,10 +1048,16 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
@@ -1080,7 +1080,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.883748904644308</v>
       </c>
       <c r="D2">
@@ -1097,7 +1097,7 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.88555723731379</v>
       </c>
       <c r="D3">
@@ -1114,7 +1114,7 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.887030988608301</v>
       </c>
       <c r="D4">
@@ -1131,7 +1131,7 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.888695929259938</v>
       </c>
       <c r="D5">
@@ -1148,7 +1148,7 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.889851031625906</v>
       </c>
       <c r="D6">
@@ -1165,7 +1165,7 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.892368358161396</v>
       </c>
       <c r="D7">
@@ -1182,7 +1182,7 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.893889906795188</v>
       </c>
       <c r="D8">
@@ -1199,7 +1199,7 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.74372659921931</v>
       </c>
       <c r="D9">
@@ -1225,6 +1225,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
